--- a/data/stat probs/jae'sean tate stat probs - condition.xlsx
+++ b/data/stat probs/jae'sean tate stat probs - condition.xlsx
@@ -19,14 +19,14 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="0 before 2023 full" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 regular" sheetId="11" state="visible" r:id="rId11"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 full" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 regular" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 full" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 regular" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 full" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="lal 2023 regular" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="lal 2023 full" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bos 2023 regular" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bos 2023 full" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 regular" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 full" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="lal 2023 regular" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="lal 2023 full" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bos 2023 regular" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bos 2023 full" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mon 2023 regular" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mon 2023 full" sheetId="20" state="visible" r:id="rId20"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="chi 2023 regular" sheetId="21" state="visible" r:id="rId21"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="chi 2023 full" sheetId="22" state="visible" r:id="rId22"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ind 2023 regular" sheetId="23" state="visible" r:id="rId23"/>
@@ -561,28 +561,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -1203,22 +1203,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -1429,28 +1429,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -2071,28 +2071,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -2645,1290 +2645,6 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>100</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>100</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>60</v>
-      </c>
-      <c r="J3" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>100</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>80</v>
-      </c>
-      <c r="F4" t="n">
-        <v>20</v>
-      </c>
-      <c r="G4" t="n">
-        <v>80</v>
-      </c>
-      <c r="H4" t="n">
-        <v>20</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>80</v>
-      </c>
-      <c r="D5" t="n">
-        <v>20</v>
-      </c>
-      <c r="E5" t="n">
-        <v>40</v>
-      </c>
-      <c r="F5" t="n">
-        <v>60</v>
-      </c>
-      <c r="G5" t="n">
-        <v>60</v>
-      </c>
-      <c r="H5" t="n">
-        <v>40</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>60</v>
-      </c>
-      <c r="D6" t="n">
-        <v>40</v>
-      </c>
-      <c r="E6" t="n">
-        <v>40</v>
-      </c>
-      <c r="F6" t="n">
-        <v>60</v>
-      </c>
-      <c r="G6" t="n">
-        <v>40</v>
-      </c>
-      <c r="H6" t="n">
-        <v>60</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>60</v>
-      </c>
-      <c r="D7" t="n">
-        <v>40</v>
-      </c>
-      <c r="E7" t="n">
-        <v>20</v>
-      </c>
-      <c r="F7" t="n">
-        <v>80</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>60</v>
-      </c>
-      <c r="D8" t="n">
-        <v>40</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>100</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>60</v>
-      </c>
-      <c r="D9" t="n">
-        <v>40</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>100</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>60</v>
-      </c>
-      <c r="D10" t="n">
-        <v>40</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>60</v>
-      </c>
-      <c r="D11" t="n">
-        <v>40</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>40</v>
-      </c>
-      <c r="D12" t="n">
-        <v>60</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>40</v>
-      </c>
-      <c r="D13" t="n">
-        <v>60</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>40</v>
-      </c>
-      <c r="D14" t="n">
-        <v>60</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>40</v>
-      </c>
-      <c r="D15" t="n">
-        <v>60</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>100</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>100</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>40</v>
-      </c>
-      <c r="D16" t="n">
-        <v>60</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>100</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>100</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="n">
-        <v>40</v>
-      </c>
-      <c r="D17" t="n">
-        <v>60</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>100</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>100</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>16</v>
-      </c>
-      <c r="C18" t="n">
-        <v>40</v>
-      </c>
-      <c r="D18" t="n">
-        <v>60</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>100</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>100</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>17</v>
-      </c>
-      <c r="C19" t="n">
-        <v>20</v>
-      </c>
-      <c r="D19" t="n">
-        <v>80</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>100</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>100</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>100</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>100</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>60</v>
-      </c>
-      <c r="J3" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>100</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>80</v>
-      </c>
-      <c r="F4" t="n">
-        <v>20</v>
-      </c>
-      <c r="G4" t="n">
-        <v>80</v>
-      </c>
-      <c r="H4" t="n">
-        <v>20</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>80</v>
-      </c>
-      <c r="D5" t="n">
-        <v>20</v>
-      </c>
-      <c r="E5" t="n">
-        <v>40</v>
-      </c>
-      <c r="F5" t="n">
-        <v>60</v>
-      </c>
-      <c r="G5" t="n">
-        <v>60</v>
-      </c>
-      <c r="H5" t="n">
-        <v>40</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>60</v>
-      </c>
-      <c r="D6" t="n">
-        <v>40</v>
-      </c>
-      <c r="E6" t="n">
-        <v>40</v>
-      </c>
-      <c r="F6" t="n">
-        <v>60</v>
-      </c>
-      <c r="G6" t="n">
-        <v>40</v>
-      </c>
-      <c r="H6" t="n">
-        <v>60</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>60</v>
-      </c>
-      <c r="D7" t="n">
-        <v>40</v>
-      </c>
-      <c r="E7" t="n">
-        <v>20</v>
-      </c>
-      <c r="F7" t="n">
-        <v>80</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>60</v>
-      </c>
-      <c r="D8" t="n">
-        <v>40</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>100</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>60</v>
-      </c>
-      <c r="D9" t="n">
-        <v>40</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>100</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>60</v>
-      </c>
-      <c r="D10" t="n">
-        <v>40</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>60</v>
-      </c>
-      <c r="D11" t="n">
-        <v>40</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>40</v>
-      </c>
-      <c r="D12" t="n">
-        <v>60</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>40</v>
-      </c>
-      <c r="D13" t="n">
-        <v>60</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>40</v>
-      </c>
-      <c r="D14" t="n">
-        <v>60</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>40</v>
-      </c>
-      <c r="D15" t="n">
-        <v>60</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>100</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>100</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>40</v>
-      </c>
-      <c r="D16" t="n">
-        <v>60</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>100</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>100</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="n">
-        <v>40</v>
-      </c>
-      <c r="D17" t="n">
-        <v>60</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>100</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>100</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>16</v>
-      </c>
-      <c r="C18" t="n">
-        <v>40</v>
-      </c>
-      <c r="D18" t="n">
-        <v>60</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>100</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>100</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>17</v>
-      </c>
-      <c r="C19" t="n">
-        <v>20</v>
-      </c>
-      <c r="D19" t="n">
-        <v>80</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>100</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>100</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3997,28 +2713,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3">
@@ -4538,7 +3254,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4607,28 +3323,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3">
@@ -5148,7 +3864,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5217,22 +3933,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -5662,7 +4378,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5731,22 +4447,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -6168,6 +4884,906 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>100</v>
+      </c>
+      <c r="I2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>100</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>100</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>100</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>100</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>100</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>100</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>100</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>100</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>100</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>100</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>100</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>100</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>100</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>100</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>100</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>100</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>100</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>100</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>100</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>100</v>
+      </c>
+      <c r="I2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>100</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>100</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>100</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>100</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>100</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>100</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>100</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>100</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>100</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>100</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>100</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>100</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>100</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>100</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>100</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>100</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>100</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>100</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>100</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
         <v>100</v>
       </c>
     </row>
@@ -6245,22 +5861,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -6315,16 +5931,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G4" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -6347,16 +5963,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F5" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H5" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -6379,16 +5995,16 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F6" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H6" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -6411,10 +6027,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F7" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -6443,10 +6059,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F8" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -6469,16 +6085,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F9" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -6501,10 +6117,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -6533,10 +6149,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -6565,10 +6181,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -6597,10 +6213,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -6695,28 +6311,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -7337,22 +6953,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -7407,16 +7023,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G4" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -7439,16 +7055,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F5" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H5" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -7471,16 +7087,16 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F6" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H6" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -7503,10 +7119,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F7" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -7535,10 +7151,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F8" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -7561,16 +7177,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F9" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -7593,10 +7209,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -7625,10 +7241,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -7657,10 +7273,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -7689,10 +7305,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -7787,28 +7403,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -8173,28 +7789,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -8559,22 +8175,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -9073,22 +8689,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -9587,28 +9203,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -10037,28 +9653,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -10487,28 +10103,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -11097,28 +10713,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -11707,28 +11323,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -12317,28 +11933,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
@@ -12927,28 +12543,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -13537,22 +13153,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -13987,22 +13603,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -14437,22 +14053,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -14951,22 +14567,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -15465,28 +15081,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -15979,28 +15595,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -16493,22 +16109,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -17135,22 +16751,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -17777,28 +17393,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -18419,28 +18035,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
@@ -19029,28 +18645,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -19671,28 +19287,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -20217,28 +19833,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -20763,28 +20379,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -21309,28 +20925,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -21855,28 +21471,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -22305,28 +21921,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -22755,28 +22371,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -23205,28 +22821,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -23655,22 +23271,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -23945,28 +23561,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3">
@@ -24587,22 +24203,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -24877,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -25135,22 +24751,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -25393,28 +25009,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -26003,28 +25619,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -26613,16 +26229,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -26807,16 +26423,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -27001,22 +26617,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -27515,22 +27131,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -28029,22 +27645,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -28447,28 +28063,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3">
@@ -29089,22 +28705,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -29507,28 +29123,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -29957,28 +29573,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -30407,22 +30023,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -30633,22 +30249,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -30859,28 +30475,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -31309,28 +30925,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -31759,28 +31375,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -32209,28 +31825,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -32659,28 +32275,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -33045,28 +32661,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -33527,28 +33143,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -33913,28 +33529,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -34299,28 +33915,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -34685,28 +34301,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -35007,28 +34623,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -35329,28 +34945,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -35811,22 +35427,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
